--- a/biology/Zoologie/Campyloptère_lazulite/Campyloptère_lazulite.xlsx
+++ b/biology/Zoologie/Campyloptère_lazulite/Campyloptère_lazulite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_lazulite</t>
+          <t>Campyloptère_lazulite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylopterus falcatus
 Le Campyloptère lazulite (Campylopterus falcatus) est une espèce d'oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_lazulite</t>
+          <t>Campyloptère_lazulite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente le nord des Andes (Colombie, Venezuela et Équateur). 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_lazulite</t>
+          <t>Campyloptère_lazulite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, c'est une espèce monotypique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_lazulite</t>
+          <t>Campyloptère_lazulite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un plumage à dominante verte et un long bec arqué noir.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_lazulite</t>
+          <t>Campyloptère_lazulite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, les prairies de hautes altitudes mais aussi les jardins ruraux, les plantations et les anciennes forêts lourdement dégradées.
 </t>
